--- a/server/biomassStock/calculator_subtropical_en.xlsx
+++ b/server/biomassStock/calculator_subtropical_en.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="21570" windowHeight="7560"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="21570" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Biomass" sheetId="9" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="80">
   <si>
     <t>1000 ha</t>
   </si>
@@ -223,9 +223,6 @@
     </r>
   </si>
   <si>
-    <t>Input data on Growing stock from  reporting table 3a</t>
-  </si>
-  <si>
     <t>Forest category</t>
   </si>
   <si>
@@ -259,30 +256,18 @@
     <t>6.</t>
   </si>
   <si>
-    <t>...of which primary</t>
-  </si>
-  <si>
     <t>...of which introduced species</t>
   </si>
   <si>
     <t>Below-ground biomass (t/ha)</t>
   </si>
   <si>
-    <t>Copy highlighted biomass values into FRA platform table 3c</t>
-  </si>
-  <si>
-    <t>Copy highlighted carbon values into FRA platform table 3d</t>
-  </si>
-  <si>
     <t>7.</t>
   </si>
   <si>
     <t>8.</t>
   </si>
   <si>
-    <t>When finished, copy this area into the comment section below table 3c in the FRA platform</t>
-  </si>
-  <si>
     <t>Data for final reporting table</t>
   </si>
   <si>
@@ -298,15 +283,9 @@
     <t>Version:</t>
   </si>
   <si>
-    <t>In Sections 1 and 2 you insert data from reporting tables 2a and 3a, and in Section 3  you insert the estimated  percentages of growing stock by combination of FRA forest type and IPCC forest type. Once you are done, copy sections 3 to 6 and paste them in the comment section below table 3c in the FRA platform. Finally, copy the data from Section 7 to table 3c in the platform and data from Section 8 to table 3d in the platform</t>
-  </si>
-  <si>
     <t>Sub-tropical climate domain</t>
   </si>
   <si>
-    <t>Input data on Forest area from  reporting table 2a</t>
-  </si>
-  <si>
     <t>Cells with a green background - paste values from platform</t>
   </si>
   <si>
@@ -323,6 +302,24 @@
   </si>
   <si>
     <t xml:space="preserve"> % of Growing stock</t>
+  </si>
+  <si>
+    <t>In Sections 1 and 2 you insert data from reporting tables 1b and 2a, and in Section 3  you insert the estimated  percentages of growing stock by combination of FRA forest type and IPCC forest type. Once you are done, copy sections 3 to 6 and paste them in the comment section below table 2c in the FRA platform. Finally, copy the data from Section 7 to table 2c in the platform and data from Section 8 to table 2d in the platform</t>
+  </si>
+  <si>
+    <t>Input data on Forest area from  reporting table 1b</t>
+  </si>
+  <si>
+    <t>Input data on Growing stock from  reporting table 2a</t>
+  </si>
+  <si>
+    <t>When finished, copy this area into the comment section below table 2c in the FRA platform</t>
+  </si>
+  <si>
+    <t>Copy highlighted biomass values into FRA platform table 2c</t>
+  </si>
+  <si>
+    <t>Copy highlighted carbon values into FRA platform table 2d</t>
   </si>
 </sst>
 </file>
@@ -332,7 +329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +489,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -984,7 +989,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1192,65 +1197,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1318,9 +1266,6 @@
     <xf numFmtId="2" fontId="9" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1340,9 +1285,6 @@
     <xf numFmtId="2" fontId="9" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1371,6 +1313,68 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1663,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T162"/>
+  <dimension ref="B1:V161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1679,13 +1683,13 @@
     <col min="15" max="16384" width="8.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31"/>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="2:14" s="33" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" s="33" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
         <v>29</v>
@@ -1701,17 +1705,17 @@
       <c r="L2" s="37"/>
       <c r="M2" s="37"/>
     </row>
-    <row r="3" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="34"/>
       <c r="C3" s="38" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="40" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F3" s="41">
-        <v>43012</v>
+        <v>43025</v>
       </c>
       <c r="G3" s="82"/>
       <c r="H3" s="83"/>
@@ -1721,7 +1725,7 @@
       <c r="L3" s="37"/>
       <c r="M3" s="37"/>
     </row>
-    <row r="4" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="34"/>
       <c r="C4" s="42"/>
       <c r="D4" s="43"/>
@@ -1735,35 +1739,35 @@
       <c r="L4" s="37"/>
       <c r="M4" s="37"/>
     </row>
-    <row r="5" spans="2:14" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
+      <c r="C5" s="128" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
       <c r="M5" s="37"/>
     </row>
-    <row r="6" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="34"/>
-      <c r="C6" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="87"/>
+      <c r="C6" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="129"/>
       <c r="H6" s="37"/>
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
@@ -1773,17 +1777,17 @@
       <c r="L6" s="37"/>
       <c r="M6" s="37"/>
     </row>
-    <row r="7" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34"/>
-      <c r="C7" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="93"/>
+      <c r="C7" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="134" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="134"/>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
@@ -1791,17 +1795,17 @@
       <c r="L7" s="37"/>
       <c r="M7" s="37"/>
     </row>
-    <row r="8" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34"/>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="88"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="130" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="130"/>
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
       <c r="J8" s="37"/>
@@ -1809,17 +1813,17 @@
       <c r="L8" s="37"/>
       <c r="M8" s="37"/>
     </row>
-    <row r="9" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="34"/>
-      <c r="C9" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="92"/>
+      <c r="C9" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="135" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="135"/>
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
@@ -1827,7 +1831,7 @@
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
     </row>
-    <row r="10" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="34"/>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
@@ -1841,7 +1845,7 @@
       <c r="L10" s="37"/>
       <c r="M10" s="37"/>
     </row>
-    <row r="11" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="34"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -1856,19 +1860,19 @@
       <c r="M11" s="46"/>
       <c r="N11" s="47"/>
     </row>
-    <row r="12" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="48" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
       <c r="M12" s="52"/>
       <c r="N12" s="47"/>
     </row>
-    <row r="13" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="48"/>
       <c r="C13" s="49"/>
       <c r="D13" s="50"/>
@@ -1876,10 +1880,10 @@
       <c r="M13" s="52"/>
       <c r="N13" s="47"/>
     </row>
-    <row r="14" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="48"/>
-      <c r="C14" s="90" t="s">
-        <v>48</v>
+      <c r="C14" s="132" t="s">
+        <v>47</v>
       </c>
       <c r="D14" s="53">
         <v>1990</v>
@@ -1911,10 +1915,10 @@
       <c r="M14" s="52"/>
       <c r="N14" s="47"/>
     </row>
-    <row r="15" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="48"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="108" t="s">
+      <c r="C15" s="133"/>
+      <c r="D15" s="89" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="53" t="s">
@@ -1942,15 +1946,23 @@
         <v>0</v>
       </c>
       <c r="M15" s="52"/>
-      <c r="N15" s="47"/>
-    </row>
-    <row r="16" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="124"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="124"/>
+    </row>
+    <row r="16" spans="2:22" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="48"/>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="107"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="88"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -1959,12 +1971,47 @@
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="52"/>
-      <c r="N16" s="47"/>
-    </row>
-    <row r="17" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="123">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="123">
+        <f t="shared" ref="O16:V17" si="0">E16</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="48"/>
       <c r="C17" s="54" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -1976,12 +2023,47 @@
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="52"/>
-      <c r="N17" s="47"/>
-    </row>
-    <row r="18" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="123">
+        <f>D17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="54" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -1993,12 +2075,47 @@
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="52"/>
-      <c r="N18" s="47"/>
-    </row>
-    <row r="19" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="123">
+        <f>D19</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="123">
+        <f t="shared" ref="O18:V18" si="1">E19</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="48"/>
       <c r="C19" s="54" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -2012,69 +2129,66 @@
       <c r="M19" s="52"/>
       <c r="N19" s="47"/>
     </row>
-    <row r="20" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="48"/>
-      <c r="C20" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
+      <c r="C20" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="80">
+        <f t="shared" ref="D20:L20" si="2">D16+D17+D19</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M20" s="52"/>
       <c r="N20" s="47"/>
     </row>
-    <row r="21" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="48"/>
-      <c r="C21" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="80">
-        <f>D16+D18+D20</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="80">
-        <f t="shared" ref="E21:L21" si="0">E16+E18+E20</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
       <c r="M21" s="52"/>
       <c r="N21" s="47"/>
     </row>
-    <row r="22" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="48"/>
+    <row r="22" spans="2:22" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="56"/>
       <c r="D22" s="57"/>
       <c r="E22" s="57"/>
@@ -2088,114 +2202,117 @@
       <c r="M22" s="52"/>
       <c r="N22" s="47"/>
     </row>
-    <row r="23" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
+    <row r="23" spans="2:22" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
       <c r="M23" s="52"/>
       <c r="N23" s="47"/>
     </row>
-    <row r="24" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>47</v>
-      </c>
+    <row r="24" spans="2:22" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="50"/>
       <c r="E24" s="50"/>
       <c r="M24" s="52"/>
       <c r="N24" s="47"/>
     </row>
-    <row r="25" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="M25" s="52"/>
+    <row r="25" spans="2:22" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="59"/>
+      <c r="C25" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="53">
+        <v>1990</v>
+      </c>
+      <c r="E25" s="53">
+        <v>2000</v>
+      </c>
+      <c r="F25" s="53">
+        <v>2010</v>
+      </c>
+      <c r="G25" s="53">
+        <v>2015</v>
+      </c>
+      <c r="H25" s="53">
+        <v>2016</v>
+      </c>
+      <c r="I25" s="53">
+        <v>2017</v>
+      </c>
+      <c r="J25" s="53">
+        <v>2018</v>
+      </c>
+      <c r="K25" s="53">
+        <v>2019</v>
+      </c>
+      <c r="L25" s="53">
+        <v>2020</v>
+      </c>
+      <c r="M25" s="60"/>
       <c r="N25" s="47"/>
     </row>
-    <row r="26" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="59"/>
-      <c r="C26" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="53">
-        <v>1990</v>
-      </c>
-      <c r="E26" s="53">
-        <v>2000</v>
-      </c>
-      <c r="F26" s="53">
-        <v>2010</v>
-      </c>
-      <c r="G26" s="53">
-        <v>2015</v>
-      </c>
-      <c r="H26" s="53">
-        <v>2016</v>
-      </c>
-      <c r="I26" s="53">
-        <v>2017</v>
-      </c>
-      <c r="J26" s="53">
-        <v>2018</v>
-      </c>
-      <c r="K26" s="53">
-        <v>2019</v>
-      </c>
-      <c r="L26" s="53">
-        <v>2020</v>
+    <row r="26" spans="2:22" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="34"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="53" t="s">
+        <v>46</v>
       </c>
       <c r="M26" s="60"/>
       <c r="N26" s="47"/>
     </row>
-    <row r="27" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="34"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" s="53" t="s">
-        <v>46</v>
-      </c>
+      <c r="C27" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="90"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
       <c r="M27" s="60"/>
       <c r="N27" s="47"/>
     </row>
-    <row r="28" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="34"/>
       <c r="C28" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="109"/>
+        <v>43</v>
+      </c>
+      <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
@@ -2207,10 +2324,10 @@
       <c r="M28" s="60"/>
       <c r="N28" s="47"/>
     </row>
-    <row r="29" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="34"/>
       <c r="C29" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -2224,10 +2341,10 @@
       <c r="M29" s="60"/>
       <c r="N29" s="47"/>
     </row>
-    <row r="30" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="34"/>
       <c r="C30" s="54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
@@ -2241,64 +2358,61 @@
       <c r="M30" s="60"/>
       <c r="N30" s="47"/>
     </row>
-    <row r="31" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="34"/>
-      <c r="C31" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
+      <c r="C31" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="81" t="str">
+        <f t="shared" ref="D31:L31" si="3">IFERROR((D16*D27+D17*D29+D19*D30)/D20,"")</f>
+        <v/>
+      </c>
+      <c r="E31" s="81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F31" s="81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G31" s="81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H31" s="81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I31" s="81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J31" s="81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K31" s="81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L31" s="81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="M31" s="60"/>
-      <c r="N31" s="47"/>
-    </row>
-    <row r="32" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:22" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="34"/>
-      <c r="C32" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="81" t="str">
-        <f>IFERROR((D16*D28+D18*D30+D20*D31)/D21,"")</f>
-        <v/>
-      </c>
-      <c r="E32" s="81" t="str">
-        <f t="shared" ref="E32:L32" si="1">IFERROR((E16*E28+E18*E30+E20*E31)/E21,"")</f>
-        <v/>
-      </c>
-      <c r="F32" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G32" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H32" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I32" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J32" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K32" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L32" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
       <c r="M32" s="60"/>
     </row>
     <row r="33" spans="2:20" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2331,229 +2445,230 @@
     </row>
     <row r="35" spans="2:20" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="34"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
       <c r="M35" s="60"/>
     </row>
-    <row r="36" spans="2:20" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="34"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
+    <row r="36" spans="2:20" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="74"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
       <c r="M36" s="60"/>
-    </row>
-    <row r="37" spans="2:20" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="74"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="61"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
+      <c r="N36" s="61"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+    </row>
+    <row r="37" spans="2:20" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
     </row>
     <row r="38" spans="2:20" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="110" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="115"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="98"/>
       <c r="M38" s="52"/>
       <c r="N38" s="62"/>
       <c r="O38" s="49"/>
       <c r="P38" s="33"/>
       <c r="Q38" s="33"/>
     </row>
-    <row r="39" spans="2:20" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="110"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
+    <row r="39" spans="2:20" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="92"/>
+      <c r="C39" s="136" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="139" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="140"/>
+      <c r="F39" s="141"/>
       <c r="G39" s="52"/>
       <c r="H39" s="52"/>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
       <c r="K39" s="52"/>
-      <c r="L39" s="117"/>
+      <c r="L39" s="98"/>
       <c r="M39" s="52"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-    </row>
-    <row r="40" spans="2:20" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="111"/>
-      <c r="C40" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="95" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="96"/>
-      <c r="F40" s="97"/>
+      <c r="N39" s="52"/>
+    </row>
+    <row r="40" spans="2:20" s="51" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="92"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="84" t="s">
+        <v>28</v>
+      </c>
       <c r="G40" s="52"/>
       <c r="H40" s="52"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52"/>
       <c r="K40" s="52"/>
-      <c r="L40" s="117"/>
+      <c r="L40" s="98"/>
       <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-    </row>
-    <row r="41" spans="2:20" s="51" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="111"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="99" t="s">
-        <v>28</v>
-      </c>
+      <c r="N40" s="47"/>
+    </row>
+    <row r="41" spans="2:20" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="92"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="143"/>
+      <c r="F41" s="144"/>
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52"/>
       <c r="K41" s="52"/>
-      <c r="L41" s="117"/>
+      <c r="L41" s="98"/>
       <c r="M41" s="52"/>
-      <c r="N41" s="47"/>
+      <c r="N41" s="52"/>
     </row>
     <row r="42" spans="2:20" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="111"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="102"/>
-      <c r="F42" s="103"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
       <c r="G42" s="52"/>
       <c r="H42" s="52"/>
       <c r="I42" s="52"/>
       <c r="J42" s="52"/>
       <c r="K42" s="52"/>
-      <c r="L42" s="117"/>
+      <c r="L42" s="98"/>
       <c r="M42" s="52"/>
       <c r="N42" s="52"/>
     </row>
     <row r="43" spans="2:20" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="111"/>
-      <c r="C43" s="118" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
       <c r="G43" s="52"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52"/>
       <c r="K43" s="52"/>
-      <c r="L43" s="117"/>
+      <c r="L43" s="98"/>
       <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
+      <c r="N43" s="47"/>
     </row>
     <row r="44" spans="2:20" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="111"/>
-      <c r="C44" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
       <c r="G44" s="52"/>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
       <c r="J44" s="52"/>
       <c r="K44" s="52"/>
-      <c r="L44" s="117"/>
+      <c r="L44" s="98"/>
       <c r="M44" s="52"/>
       <c r="N44" s="47"/>
     </row>
     <row r="45" spans="2:20" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="111"/>
-      <c r="C45" s="118" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="52"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="30">
+        <f>SUM(D42:D44)</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="30">
+        <f>SUM(E42:E44)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="30">
+        <f>SUM(F42:F44)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="63" t="s">
+        <v>41</v>
+      </c>
       <c r="H45" s="52"/>
       <c r="I45" s="52"/>
       <c r="J45" s="52"/>
       <c r="K45" s="52"/>
-      <c r="L45" s="117"/>
+      <c r="L45" s="98"/>
       <c r="M45" s="52"/>
       <c r="N45" s="47"/>
     </row>
     <row r="46" spans="2:20" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="111"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="30">
-        <f>SUM(D43:D45)</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="30">
-        <f>SUM(E43:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="30">
-        <f>SUM(F43:F45)</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="63" t="s">
-        <v>41</v>
-      </c>
+      <c r="B46" s="92"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="52"/>
       <c r="H46" s="52"/>
       <c r="I46" s="52"/>
       <c r="J46" s="52"/>
       <c r="K46" s="52"/>
-      <c r="L46" s="117"/>
+      <c r="L46" s="98"/>
       <c r="M46" s="52"/>
       <c r="N46" s="47"/>
     </row>
     <row r="47" spans="2:20" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="111"/>
-      <c r="C47" s="119"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="100"/>
       <c r="D47" s="64"/>
       <c r="E47" s="64"/>
       <c r="F47" s="64"/>
@@ -2562,13 +2677,23 @@
       <c r="I47" s="52"/>
       <c r="J47" s="52"/>
       <c r="K47" s="52"/>
-      <c r="L47" s="117"/>
+      <c r="L47" s="98"/>
       <c r="M47" s="52"/>
       <c r="N47" s="47"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
     </row>
     <row r="48" spans="2:20" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="111"/>
-      <c r="C48" s="119"/>
+      <c r="B48" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="97" t="s">
+        <v>54</v>
+      </c>
       <c r="D48" s="64"/>
       <c r="E48" s="64"/>
       <c r="F48" s="64"/>
@@ -2577,23 +2702,13 @@
       <c r="I48" s="52"/>
       <c r="J48" s="52"/>
       <c r="K48" s="52"/>
-      <c r="L48" s="117"/>
+      <c r="L48" s="98"/>
       <c r="M48" s="52"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="33"/>
+      <c r="N48" s="52"/>
     </row>
     <row r="49" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="116" t="s">
-        <v>55</v>
-      </c>
+      <c r="B49" s="92"/>
+      <c r="C49" s="97"/>
       <c r="D49" s="64"/>
       <c r="E49" s="64"/>
       <c r="F49" s="64"/>
@@ -2602,14 +2717,18 @@
       <c r="I49" s="52"/>
       <c r="J49" s="52"/>
       <c r="K49" s="52"/>
-      <c r="L49" s="117"/>
+      <c r="L49" s="98"/>
       <c r="M49" s="52"/>
       <c r="N49" s="52"/>
     </row>
     <row r="50" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="111"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="64"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="86">
+        <v>0.47</v>
+      </c>
       <c r="E50" s="64"/>
       <c r="F50" s="64"/>
       <c r="G50" s="52"/>
@@ -2617,32 +2736,28 @@
       <c r="I50" s="52"/>
       <c r="J50" s="52"/>
       <c r="K50" s="52"/>
-      <c r="L50" s="117"/>
+      <c r="L50" s="98"/>
       <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
+      <c r="N50" s="47"/>
     </row>
     <row r="51" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="111"/>
-      <c r="C51" s="118" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="105">
-        <v>0.47</v>
-      </c>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
       <c r="G51" s="52"/>
       <c r="H51" s="52"/>
       <c r="I51" s="52"/>
       <c r="J51" s="52"/>
       <c r="K51" s="52"/>
-      <c r="L51" s="117"/>
+      <c r="L51" s="98"/>
       <c r="M51" s="52"/>
       <c r="N51" s="47"/>
     </row>
     <row r="52" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="111"/>
-      <c r="C52" s="116"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="97"/>
       <c r="D52" s="52"/>
       <c r="E52" s="52"/>
       <c r="F52" s="52"/>
@@ -2651,13 +2766,17 @@
       <c r="I52" s="52"/>
       <c r="J52" s="52"/>
       <c r="K52" s="52"/>
-      <c r="L52" s="117"/>
+      <c r="L52" s="98"/>
       <c r="M52" s="52"/>
       <c r="N52" s="47"/>
     </row>
     <row r="53" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="111"/>
-      <c r="C53" s="116"/>
+      <c r="B53" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="97" t="s">
+        <v>49</v>
+      </c>
       <c r="D53" s="52"/>
       <c r="E53" s="52"/>
       <c r="F53" s="52"/>
@@ -2666,118 +2785,143 @@
       <c r="I53" s="52"/>
       <c r="J53" s="52"/>
       <c r="K53" s="52"/>
-      <c r="L53" s="117"/>
+      <c r="L53" s="98"/>
       <c r="M53" s="52"/>
       <c r="N53" s="47"/>
     </row>
-    <row r="54" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="117"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="47"/>
-    </row>
-    <row r="55" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="112"/>
-      <c r="C55" s="120"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="121"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="65"/>
+    <row r="54" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="93"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="102"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="65"/>
+    </row>
+    <row r="55" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B55" s="52"/>
+      <c r="C55" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="53">
+        <v>1990</v>
+      </c>
+      <c r="E55" s="53">
+        <v>2000</v>
+      </c>
+      <c r="F55" s="53">
+        <v>2010</v>
+      </c>
+      <c r="G55" s="53">
+        <v>2015</v>
+      </c>
+      <c r="H55" s="53">
+        <v>2016</v>
+      </c>
+      <c r="I55" s="53">
+        <v>2017</v>
+      </c>
+      <c r="J55" s="53">
+        <v>2018</v>
+      </c>
+      <c r="K55" s="53">
+        <v>2019</v>
+      </c>
+      <c r="L55" s="103">
+        <v>2020</v>
+      </c>
+      <c r="M55" s="66"/>
+      <c r="N55" s="66"/>
     </row>
     <row r="56" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B56" s="52"/>
       <c r="C56" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="53">
-        <v>1990</v>
-      </c>
-      <c r="E56" s="53">
-        <v>2000</v>
-      </c>
-      <c r="F56" s="53">
-        <v>2010</v>
-      </c>
-      <c r="G56" s="53">
-        <v>2015</v>
-      </c>
-      <c r="H56" s="53">
-        <v>2016</v>
-      </c>
-      <c r="I56" s="53">
-        <v>2017</v>
-      </c>
-      <c r="J56" s="53">
-        <v>2018</v>
-      </c>
-      <c r="K56" s="53">
-        <v>2019</v>
-      </c>
-      <c r="L56" s="122">
-        <v>2020</v>
+        <v>11</v>
+      </c>
+      <c r="D56" s="28" t="str">
+        <f t="shared" ref="D56:L56" si="4">IF(NOT(ISBLANK(D$27)),VLOOKUP(D$27,BCEFSubtropicalBroad,3),"")</f>
+        <v/>
+      </c>
+      <c r="E56" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F56" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G56" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H56" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I56" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J56" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K56" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L56" s="105" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="M56" s="66"/>
       <c r="N56" s="66"/>
     </row>
     <row r="57" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B57" s="52"/>
-      <c r="C57" s="123" t="s">
-        <v>11</v>
+      <c r="C57" s="104" t="s">
+        <v>12</v>
       </c>
       <c r="D57" s="28" t="str">
-        <f>IF(NOT(ISBLANK(D$28)),VLOOKUP(D$28,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" ref="D57:L57" si="5">IF(NOT(ISBLANK(D$27)),VLOOKUP(D$27,BCEFSubtropicalBroad,3),"")</f>
         <v/>
       </c>
       <c r="E57" s="28" t="str">
-        <f>IF(NOT(ISBLANK(E$28)),VLOOKUP(E$28,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F57" s="28" t="str">
-        <f>IF(NOT(ISBLANK(F$28)),VLOOKUP(F$28,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G57" s="28" t="str">
-        <f>IF(NOT(ISBLANK(G$28)),VLOOKUP(G$28,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H57" s="28" t="str">
-        <f>IF(NOT(ISBLANK(H$28)),VLOOKUP(H$28,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I57" s="28" t="str">
-        <f>IF(NOT(ISBLANK(I$28)),VLOOKUP(I$28,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J57" s="28" t="str">
-        <f>IF(NOT(ISBLANK(J$28)),VLOOKUP(J$28,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K57" s="28" t="str">
-        <f>IF(NOT(ISBLANK(K$28)),VLOOKUP(K$28,BCEFSubtropicalBroad,3),"")</f>
-        <v/>
-      </c>
-      <c r="L57" s="124" t="str">
-        <f>IF(NOT(ISBLANK(L$28)),VLOOKUP(L$28,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L57" s="105" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M57" s="66"/>
@@ -2785,43 +2929,43 @@
     </row>
     <row r="58" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B58" s="52"/>
-      <c r="C58" s="123" t="s">
-        <v>12</v>
+      <c r="C58" s="104" t="s">
+        <v>9</v>
       </c>
       <c r="D58" s="28" t="str">
-        <f t="shared" ref="D58:L58" si="2">IF(NOT(ISBLANK(D$28)),VLOOKUP(D$28,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" ref="D58:L58" si="6">IF(NOT(ISBLANK(D$27)),VLOOKUP(D$27,BCEFSubtropicalConif,3),"")</f>
         <v/>
       </c>
       <c r="E58" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F58" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G58" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H58" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I58" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J58" s="28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K58" s="28" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L58" s="124" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L58" s="105" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M58" s="66"/>
@@ -2829,104 +2973,104 @@
     </row>
     <row r="59" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B59" s="52"/>
-      <c r="C59" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="28" t="str">
-        <f t="shared" ref="D59:L59" si="3">IF(NOT(ISBLANK(D$28)),VLOOKUP(D$28,BCEFSubtropicalConif,3),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F59" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G59" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H59" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I59" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J59" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K59" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L59" s="124" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="C59" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="125"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
+      <c r="G59" s="126"/>
+      <c r="H59" s="126"/>
+      <c r="I59" s="126"/>
+      <c r="J59" s="126"/>
+      <c r="K59" s="126"/>
+      <c r="L59" s="127"/>
       <c r="M59" s="66"/>
       <c r="N59" s="66"/>
     </row>
     <row r="60" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B60" s="52"/>
       <c r="C60" s="104" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="84"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
-      <c r="K60" s="85"/>
-      <c r="L60" s="125"/>
+        <v>11</v>
+      </c>
+      <c r="D60" s="28" t="str">
+        <f t="shared" ref="D60:L60" si="7">IF(NOT(ISBLANK(D$29)),VLOOKUP(D$29,BCEFSubtropicalBroad,3),"")</f>
+        <v/>
+      </c>
+      <c r="E60" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F60" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G60" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H60" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I60" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J60" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K60" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L60" s="105" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="M60" s="66"/>
       <c r="N60" s="66"/>
     </row>
     <row r="61" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B61" s="52"/>
-      <c r="C61" s="123" t="s">
-        <v>11</v>
+      <c r="C61" s="104" t="s">
+        <v>12</v>
       </c>
       <c r="D61" s="28" t="str">
-        <f>IF(NOT(ISBLANK(D$30)),VLOOKUP(D$30,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" ref="D61:L61" si="8">IF(NOT(ISBLANK(D$29)),VLOOKUP(D$29,BCEFSubtropicalBroad,3),"")</f>
         <v/>
       </c>
       <c r="E61" s="28" t="str">
-        <f>IF(NOT(ISBLANK(E$30)),VLOOKUP(E$30,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F61" s="28" t="str">
-        <f>IF(NOT(ISBLANK(F$30)),VLOOKUP(F$30,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G61" s="28" t="str">
-        <f>IF(NOT(ISBLANK(G$30)),VLOOKUP(G$30,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H61" s="28" t="str">
-        <f>IF(NOT(ISBLANK(H$30)),VLOOKUP(H$30,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I61" s="28" t="str">
-        <f>IF(NOT(ISBLANK(I$30)),VLOOKUP(I$30,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J61" s="28" t="str">
-        <f>IF(NOT(ISBLANK(J$30)),VLOOKUP(J$30,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K61" s="28" t="str">
-        <f>IF(NOT(ISBLANK(K$30)),VLOOKUP(K$30,BCEFSubtropicalBroad,3),"")</f>
-        <v/>
-      </c>
-      <c r="L61" s="124" t="str">
-        <f>IF(NOT(ISBLANK(L$30)),VLOOKUP(L$30,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L61" s="105" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M61" s="66"/>
@@ -2934,43 +3078,43 @@
     </row>
     <row r="62" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B62" s="52"/>
-      <c r="C62" s="123" t="s">
-        <v>12</v>
+      <c r="C62" s="104" t="s">
+        <v>9</v>
       </c>
       <c r="D62" s="28" t="str">
-        <f t="shared" ref="D62:L62" si="4">IF(NOT(ISBLANK(D$30)),VLOOKUP(D$30,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" ref="D62:L62" si="9">IF(NOT(ISBLANK(D$29)),VLOOKUP(D$29,BCEFSubtropicalConif,3),"")</f>
         <v/>
       </c>
       <c r="E62" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F62" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G62" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H62" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I62" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J62" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K62" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L62" s="124" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L62" s="105" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M62" s="66"/>
@@ -2978,104 +3122,104 @@
     </row>
     <row r="63" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B63" s="52"/>
-      <c r="C63" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="28" t="str">
-        <f t="shared" ref="D63:L63" si="5">IF(NOT(ISBLANK(D$30)),VLOOKUP(D$30,BCEFSubtropicalConif,3),"")</f>
-        <v/>
-      </c>
-      <c r="E63" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F63" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G63" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H63" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I63" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J63" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K63" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L63" s="124" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="C63" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="125"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="126"/>
+      <c r="G63" s="126"/>
+      <c r="H63" s="126"/>
+      <c r="I63" s="126"/>
+      <c r="J63" s="126"/>
+      <c r="K63" s="126"/>
+      <c r="L63" s="127"/>
       <c r="M63" s="66"/>
       <c r="N63" s="66"/>
     </row>
     <row r="64" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B64" s="52"/>
       <c r="C64" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="84"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
-      <c r="I64" s="85"/>
-      <c r="J64" s="85"/>
-      <c r="K64" s="85"/>
-      <c r="L64" s="125"/>
+        <v>11</v>
+      </c>
+      <c r="D64" s="122" t="str">
+        <f t="shared" ref="D64:L64" si="10">IF(NOT(ISBLANK(D$30)),VLOOKUP(D$30,BCEFSubtropicalBroad,3),"")</f>
+        <v/>
+      </c>
+      <c r="E64" s="68" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F64" s="68" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G64" s="68" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H64" s="68" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I64" s="68" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J64" s="68" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="K64" s="68" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L64" s="106" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="M64" s="66"/>
       <c r="N64" s="66"/>
     </row>
     <row r="65" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B65" s="52"/>
-      <c r="C65" s="123" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="143" t="str">
-        <f>IF(NOT(ISBLANK(D$31)),VLOOKUP(D$31,BCEFSubtropicalBroad,3),"")</f>
+      <c r="C65" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="122" t="str">
+        <f t="shared" ref="D65:L65" si="11">IF(NOT(ISBLANK(D$30)),VLOOKUP(D$30,BCEFSubtropicalBroad,3),"")</f>
         <v/>
       </c>
       <c r="E65" s="68" t="str">
-        <f>IF(NOT(ISBLANK(E$31)),VLOOKUP(E$31,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F65" s="68" t="str">
-        <f>IF(NOT(ISBLANK(F$31)),VLOOKUP(F$31,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G65" s="68" t="str">
-        <f>IF(NOT(ISBLANK(G$31)),VLOOKUP(G$31,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H65" s="68" t="str">
-        <f>IF(NOT(ISBLANK(H$31)),VLOOKUP(H$31,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I65" s="68" t="str">
-        <f>IF(NOT(ISBLANK(I$31)),VLOOKUP(I$31,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J65" s="68" t="str">
-        <f>IF(NOT(ISBLANK(J$31)),VLOOKUP(J$31,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K65" s="68" t="str">
-        <f>IF(NOT(ISBLANK(K$31)),VLOOKUP(K$31,BCEFSubtropicalBroad,3),"")</f>
-        <v/>
-      </c>
-      <c r="L65" s="126" t="str">
-        <f>IF(NOT(ISBLANK(L$31)),VLOOKUP(L$31,BCEFSubtropicalBroad,3),"")</f>
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L65" s="106" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M65" s="66"/>
@@ -3083,43 +3227,43 @@
     </row>
     <row r="66" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B66" s="52"/>
-      <c r="C66" s="123" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="143" t="str">
-        <f t="shared" ref="D66:L66" si="6">IF(NOT(ISBLANK(D$31)),VLOOKUP(D$31,BCEFSubtropicalBroad,3),"")</f>
+      <c r="C66" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="122" t="str">
+        <f t="shared" ref="D66:L66" si="12">IF(NOT(ISBLANK(D$30)),VLOOKUP(D$30,BCEFSubtropicalConif,3),"")</f>
         <v/>
       </c>
       <c r="E66" s="68" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F66" s="68" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G66" s="68" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H66" s="68" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I66" s="68" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J66" s="68" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K66" s="68" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L66" s="126" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L66" s="106" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M66" s="66"/>
@@ -3127,104 +3271,104 @@
     </row>
     <row r="67" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B67" s="52"/>
-      <c r="C67" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="143" t="str">
-        <f t="shared" ref="D67:L67" si="7">IF(NOT(ISBLANK(D$31)),VLOOKUP(D$31,BCEFSubtropicalConif,3),"")</f>
-        <v/>
-      </c>
-      <c r="E67" s="68" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F67" s="68" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G67" s="68" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H67" s="68" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I67" s="68" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J67" s="68" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K67" s="68" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L67" s="126" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="C67" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" s="125"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="126"/>
+      <c r="G67" s="126"/>
+      <c r="H67" s="126"/>
+      <c r="I67" s="126"/>
+      <c r="J67" s="126"/>
+      <c r="K67" s="126"/>
+      <c r="L67" s="127"/>
       <c r="M67" s="66"/>
       <c r="N67" s="66"/>
     </row>
     <row r="68" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B68" s="52"/>
       <c r="C68" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" s="84"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="85"/>
-      <c r="H68" s="85"/>
-      <c r="I68" s="85"/>
-      <c r="J68" s="85"/>
-      <c r="K68" s="85"/>
-      <c r="L68" s="125"/>
+        <v>26</v>
+      </c>
+      <c r="D68" s="28" t="str">
+        <f>IF(SUMPRODUCT($D$42:$D$44,D56:D58)=0,"",SUMPRODUCT($D$42:$D$44,D56:D58))</f>
+        <v/>
+      </c>
+      <c r="E68" s="28" t="str">
+        <f t="shared" ref="E68:L68" si="13">IF(SUMPRODUCT($D$42:$D$44,E56:E58)=0,"",SUMPRODUCT($D$42:$D$44,E56:E58))</f>
+        <v/>
+      </c>
+      <c r="F68" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G68" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H68" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I68" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J68" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K68" s="28" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L68" s="105" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
       <c r="M68" s="66"/>
       <c r="N68" s="66"/>
     </row>
     <row r="69" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B69" s="52"/>
-      <c r="C69" s="123" t="s">
-        <v>26</v>
+      <c r="C69" s="104" t="s">
+        <v>27</v>
       </c>
       <c r="D69" s="28" t="str">
-        <f>IF(SUMPRODUCT($D$43:$D$45,D57:D59)=0,"",SUMPRODUCT($D$43:$D$45,D57:D59))</f>
+        <f>IF(SUMPRODUCT($E$42:$E$44,D60:D62)=0,"",SUMPRODUCT($E$42:$E$44,D60:D62))</f>
         <v/>
       </c>
       <c r="E69" s="28" t="str">
-        <f t="shared" ref="E69:L69" si="8">IF(SUMPRODUCT($D$43:$D$45,E57:E59)=0,"",SUMPRODUCT($D$43:$D$45,E57:E59))</f>
+        <f t="shared" ref="E69:L69" si="14">IF(SUMPRODUCT($E$42:$E$44,E60:E62)=0,"",SUMPRODUCT($E$42:$E$44,E60:E62))</f>
         <v/>
       </c>
       <c r="F69" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G69" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="H69" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I69" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J69" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K69" s="28" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L69" s="124" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="L69" s="105" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M69" s="66"/>
@@ -3232,43 +3376,43 @@
     </row>
     <row r="70" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B70" s="52"/>
-      <c r="C70" s="123" t="s">
-        <v>27</v>
+      <c r="C70" s="104" t="s">
+        <v>28</v>
       </c>
       <c r="D70" s="28" t="str">
-        <f>IF(SUMPRODUCT($E$43:$E$45,D61:D63)=0,"",SUMPRODUCT($E$43:$E$45,D61:D63))</f>
+        <f>IF(SUMPRODUCT($F$42:$F$44,D64:D66)=0,"",SUMPRODUCT($F$42:$F$44,D64:D66))</f>
         <v/>
       </c>
       <c r="E70" s="28" t="str">
-        <f t="shared" ref="E70:L70" si="9">IF(SUMPRODUCT($E$43:$E$45,E61:E63)=0,"",SUMPRODUCT($E$43:$E$45,E61:E63))</f>
+        <f t="shared" ref="E70:L70" si="15">IF(SUMPRODUCT($F$42:$F$44,E64:E66)=0,"",SUMPRODUCT($F$42:$F$44,E64:E66))</f>
         <v/>
       </c>
       <c r="F70" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G70" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H70" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I70" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J70" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K70" s="28" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L70" s="124" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="L70" s="105" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M70" s="66"/>
@@ -3276,66 +3420,41 @@
     </row>
     <row r="71" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B71" s="52"/>
-      <c r="C71" s="123" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="28" t="str">
-        <f>IF(SUMPRODUCT($F$43:$F$45,D65:D67)=0,"",SUMPRODUCT($F$43:$F$45,D65:D67))</f>
-        <v/>
-      </c>
-      <c r="E71" s="28" t="str">
-        <f t="shared" ref="E71:L71" si="10">IF(SUMPRODUCT($F$43:$F$45,E65:E67)=0,"",SUMPRODUCT($F$43:$F$45,E65:E67))</f>
-        <v/>
-      </c>
-      <c r="F71" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G71" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H71" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I71" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J71" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="K71" s="28" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L71" s="124" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
+      <c r="C71" s="107"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="70"/>
+      <c r="J71" s="70"/>
+      <c r="K71" s="70"/>
+      <c r="L71" s="108"/>
       <c r="M71" s="66"/>
       <c r="N71" s="66"/>
     </row>
     <row r="72" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B72" s="52"/>
-      <c r="C72" s="127"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="70"/>
-      <c r="K72" s="70"/>
-      <c r="L72" s="128"/>
-      <c r="M72" s="66"/>
+      <c r="C72" s="109"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="98"/>
+      <c r="M72" s="52"/>
       <c r="N72" s="66"/>
     </row>
-    <row r="73" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B73" s="52"/>
-      <c r="C73" s="129"/>
+    <row r="73" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="97" t="s">
+        <v>50</v>
+      </c>
       <c r="D73" s="52"/>
       <c r="E73" s="52"/>
       <c r="F73" s="52"/>
@@ -3344,118 +3463,143 @@
       <c r="I73" s="52"/>
       <c r="J73" s="52"/>
       <c r="K73" s="52"/>
-      <c r="L73" s="117"/>
+      <c r="L73" s="98"/>
       <c r="M73" s="52"/>
-      <c r="N73" s="66"/>
-    </row>
-    <row r="74" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74" s="116" t="s">
-        <v>51</v>
-      </c>
-      <c r="D74" s="52"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="52"/>
-      <c r="J74" s="52"/>
-      <c r="K74" s="52"/>
-      <c r="L74" s="117"/>
-      <c r="M74" s="52"/>
-      <c r="N74" s="47"/>
-    </row>
-    <row r="75" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="112"/>
-      <c r="C75" s="120"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="60"/>
-      <c r="L75" s="121"/>
-      <c r="M75" s="60"/>
-      <c r="N75" s="65"/>
+      <c r="N73" s="47"/>
+    </row>
+    <row r="74" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="93"/>
+      <c r="C74" s="101"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="60"/>
+      <c r="L74" s="102"/>
+      <c r="M74" s="60"/>
+      <c r="N74" s="65"/>
+    </row>
+    <row r="75" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B75" s="52"/>
+      <c r="C75" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="53">
+        <v>1990</v>
+      </c>
+      <c r="E75" s="53">
+        <v>2000</v>
+      </c>
+      <c r="F75" s="53">
+        <v>2010</v>
+      </c>
+      <c r="G75" s="53">
+        <v>2015</v>
+      </c>
+      <c r="H75" s="53">
+        <v>2016</v>
+      </c>
+      <c r="I75" s="53">
+        <v>2017</v>
+      </c>
+      <c r="J75" s="53">
+        <v>2018</v>
+      </c>
+      <c r="K75" s="53">
+        <v>2019</v>
+      </c>
+      <c r="L75" s="103">
+        <v>2020</v>
+      </c>
+      <c r="M75" s="66"/>
+      <c r="N75" s="66"/>
     </row>
     <row r="76" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B76" s="52"/>
       <c r="C76" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" s="53">
-        <v>1990</v>
-      </c>
-      <c r="E76" s="53">
-        <v>2000</v>
-      </c>
-      <c r="F76" s="53">
-        <v>2010</v>
-      </c>
-      <c r="G76" s="53">
-        <v>2015</v>
-      </c>
-      <c r="H76" s="53">
-        <v>2016</v>
-      </c>
-      <c r="I76" s="53">
-        <v>2017</v>
-      </c>
-      <c r="J76" s="53">
-        <v>2018</v>
-      </c>
-      <c r="K76" s="53">
-        <v>2019</v>
-      </c>
-      <c r="L76" s="122">
-        <v>2020</v>
+        <v>11</v>
+      </c>
+      <c r="D76" s="28" t="str">
+        <f t="shared" ref="D76:L76" si="16">IFERROR(VLOOKUP(D$96,RSSubtropicalHumid,3),"")</f>
+        <v/>
+      </c>
+      <c r="E76" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="F76" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="G76" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H76" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I76" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J76" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K76" s="28" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="L76" s="105" t="str">
+        <f t="shared" si="16"/>
+        <v/>
       </c>
       <c r="M76" s="66"/>
       <c r="N76" s="66"/>
     </row>
     <row r="77" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B77" s="52"/>
-      <c r="C77" s="123" t="s">
-        <v>11</v>
+      <c r="C77" s="104" t="s">
+        <v>12</v>
       </c>
       <c r="D77" s="28" t="str">
-        <f t="shared" ref="D77:L77" si="11">IFERROR(VLOOKUP(D$97,RSSubtropicalHumid,3),"")</f>
+        <f t="shared" ref="D77:L77" si="17">IFERROR(VLOOKUP(D$96,RSSubtropicalDry,3),"")</f>
         <v/>
       </c>
       <c r="E77" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="F77" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G77" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H77" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I77" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J77" s="28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K77" s="28" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L77" s="124" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L77" s="105" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M77" s="66"/>
@@ -3463,43 +3607,43 @@
     </row>
     <row r="78" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B78" s="52"/>
-      <c r="C78" s="123" t="s">
-        <v>12</v>
+      <c r="C78" s="104" t="s">
+        <v>9</v>
       </c>
       <c r="D78" s="28" t="str">
-        <f t="shared" ref="D78:L78" si="12">IFERROR(VLOOKUP(D$97,RSSubtropicalDry,3),"")</f>
+        <f t="shared" ref="D78:L78" si="18">IFERROR(VLOOKUP(D$96,RSSubtropicalConif,3),"")</f>
         <v/>
       </c>
       <c r="E78" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F78" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G78" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H78" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I78" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J78" s="28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K78" s="28" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L78" s="124" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L78" s="105" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M78" s="66"/>
@@ -3507,104 +3651,104 @@
     </row>
     <row r="79" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B79" s="52"/>
-      <c r="C79" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="28" t="str">
-        <f t="shared" ref="D79:L79" si="13">IFERROR(VLOOKUP(D$97,RSSubtropicalConif,3),"")</f>
-        <v/>
-      </c>
-      <c r="E79" s="28" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="F79" s="28" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G79" s="28" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H79" s="28" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I79" s="28" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J79" s="28" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="K79" s="28" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L79" s="124" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
+      <c r="C79" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="125"/>
+      <c r="E79" s="126"/>
+      <c r="F79" s="126"/>
+      <c r="G79" s="126"/>
+      <c r="H79" s="126"/>
+      <c r="I79" s="126"/>
+      <c r="J79" s="126"/>
+      <c r="K79" s="126"/>
+      <c r="L79" s="127"/>
       <c r="M79" s="66"/>
       <c r="N79" s="66"/>
     </row>
     <row r="80" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B80" s="52"/>
       <c r="C80" s="104" t="s">
-        <v>27</v>
-      </c>
-      <c r="D80" s="84"/>
-      <c r="E80" s="85"/>
-      <c r="F80" s="85"/>
-      <c r="G80" s="85"/>
-      <c r="H80" s="85"/>
-      <c r="I80" s="85"/>
-      <c r="J80" s="85"/>
-      <c r="K80" s="85"/>
-      <c r="L80" s="125"/>
+        <v>11</v>
+      </c>
+      <c r="D80" s="71" t="str">
+        <f t="shared" ref="D80:L80" si="19">IFERROR(VLOOKUP(D$97,RSSubtropicalHumid,3),"")</f>
+        <v/>
+      </c>
+      <c r="E80" s="71" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="F80" s="71" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G80" s="71" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H80" s="71" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I80" s="71" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="J80" s="71" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="K80" s="71" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L80" s="105" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="M80" s="66"/>
       <c r="N80" s="66"/>
     </row>
     <row r="81" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B81" s="52"/>
-      <c r="C81" s="123" t="s">
-        <v>11</v>
+      <c r="C81" s="104" t="s">
+        <v>12</v>
       </c>
       <c r="D81" s="71" t="str">
-        <f t="shared" ref="D81:L81" si="14">IFERROR(VLOOKUP(D$98,RSSubtropicalHumid,3),"")</f>
+        <f t="shared" ref="D81:L81" si="20">IFERROR(VLOOKUP(D$97,RSSubtropicalDry,3),"")</f>
         <v/>
       </c>
       <c r="E81" s="71" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F81" s="71" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G81" s="71" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="H81" s="71" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I81" s="71" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J81" s="71" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K81" s="71" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L81" s="124" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L81" s="105" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M81" s="66"/>
@@ -3612,43 +3756,43 @@
     </row>
     <row r="82" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B82" s="52"/>
-      <c r="C82" s="123" t="s">
-        <v>12</v>
+      <c r="C82" s="104" t="s">
+        <v>9</v>
       </c>
       <c r="D82" s="71" t="str">
-        <f t="shared" ref="D82:L82" si="15">IFERROR(VLOOKUP(D$98,RSSubtropicalDry,3),"")</f>
+        <f t="shared" ref="D82:L82" si="21">IFERROR(VLOOKUP(D$97,RSSubtropicalConif,3),"")</f>
         <v/>
       </c>
       <c r="E82" s="71" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F82" s="71" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="G82" s="71" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H82" s="71" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="I82" s="71" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J82" s="71" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K82" s="71" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="L82" s="124" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="L82" s="105" t="str">
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M82" s="66"/>
@@ -3656,104 +3800,104 @@
     </row>
     <row r="83" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B83" s="52"/>
-      <c r="C83" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="71" t="str">
-        <f t="shared" ref="D83:L83" si="16">IFERROR(VLOOKUP(D$98,RSSubtropicalConif,3),"")</f>
-        <v/>
-      </c>
-      <c r="E83" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="F83" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="G83" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="H83" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I83" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="J83" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="K83" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="L83" s="124" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
+      <c r="C83" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="125"/>
+      <c r="E83" s="126"/>
+      <c r="F83" s="126"/>
+      <c r="G83" s="126"/>
+      <c r="H83" s="126"/>
+      <c r="I83" s="126"/>
+      <c r="J83" s="126"/>
+      <c r="K83" s="126"/>
+      <c r="L83" s="127"/>
       <c r="M83" s="66"/>
       <c r="N83" s="66"/>
     </row>
     <row r="84" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B84" s="52"/>
       <c r="C84" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="D84" s="84"/>
-      <c r="E84" s="85"/>
-      <c r="F84" s="85"/>
-      <c r="G84" s="85"/>
-      <c r="H84" s="85"/>
-      <c r="I84" s="85"/>
-      <c r="J84" s="85"/>
-      <c r="K84" s="85"/>
-      <c r="L84" s="125"/>
+        <v>11</v>
+      </c>
+      <c r="D84" s="68" t="str">
+        <f t="shared" ref="D84:L84" si="22">IFERROR(VLOOKUP(D$98,RSSubtropicalHumid,3),"")</f>
+        <v/>
+      </c>
+      <c r="E84" s="68" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="F84" s="68" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="G84" s="68" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H84" s="68" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I84" s="68" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="J84" s="68" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="K84" s="68" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="L84" s="106" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
       <c r="M84" s="66"/>
       <c r="N84" s="66"/>
     </row>
     <row r="85" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B85" s="52"/>
-      <c r="C85" s="123" t="s">
-        <v>11</v>
+      <c r="C85" s="104" t="s">
+        <v>12</v>
       </c>
       <c r="D85" s="68" t="str">
-        <f t="shared" ref="D85:L85" si="17">IFERROR(VLOOKUP(D$99,RSSubtropicalHumid,3),"")</f>
+        <f t="shared" ref="D85:L85" si="23">IFERROR(VLOOKUP(D$98,RSSubtropicalDry,3),"")</f>
         <v/>
       </c>
       <c r="E85" s="68" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F85" s="68" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G85" s="68" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H85" s="68" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I85" s="68" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="J85" s="68" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="K85" s="68" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L85" s="126" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="L85" s="106" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="M85" s="66"/>
@@ -3761,43 +3905,43 @@
     </row>
     <row r="86" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B86" s="52"/>
-      <c r="C86" s="123" t="s">
-        <v>12</v>
+      <c r="C86" s="104" t="s">
+        <v>9</v>
       </c>
       <c r="D86" s="68" t="str">
-        <f t="shared" ref="D86:L86" si="18">IFERROR(VLOOKUP(D$99,RSSubtropicalDry,3),"")</f>
+        <f t="shared" ref="D86:L86" si="24">IFERROR(VLOOKUP(D$98,RSSubtropicalConif,3),"")</f>
         <v/>
       </c>
       <c r="E86" s="68" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F86" s="68" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="G86" s="68" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="H86" s="68" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I86" s="68" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J86" s="68" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="K86" s="68" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="L86" s="126" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="L86" s="106" t="str">
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="M86" s="66"/>
@@ -3805,104 +3949,104 @@
     </row>
     <row r="87" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B87" s="52"/>
-      <c r="C87" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="68" t="str">
-        <f t="shared" ref="D87:L87" si="19">IFERROR(VLOOKUP(D$99,RSSubtropicalConif,3),"")</f>
-        <v/>
-      </c>
-      <c r="E87" s="68" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="F87" s="68" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="G87" s="68" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="H87" s="68" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I87" s="68" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="J87" s="68" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="K87" s="68" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L87" s="126" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
+      <c r="C87" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" s="125"/>
+      <c r="E87" s="126"/>
+      <c r="F87" s="126"/>
+      <c r="G87" s="126"/>
+      <c r="H87" s="126"/>
+      <c r="I87" s="126"/>
+      <c r="J87" s="126"/>
+      <c r="K87" s="126"/>
+      <c r="L87" s="127"/>
       <c r="M87" s="66"/>
       <c r="N87" s="66"/>
     </row>
     <row r="88" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B88" s="52"/>
       <c r="C88" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="D88" s="84"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="85"/>
-      <c r="I88" s="85"/>
-      <c r="J88" s="85"/>
-      <c r="K88" s="85"/>
-      <c r="L88" s="125"/>
+        <v>26</v>
+      </c>
+      <c r="D88" s="28" t="str">
+        <f>IF(SUMPRODUCT($D$42:$D$44,D76:D78)=0,"",SUMPRODUCT($D$42:$D$44,D76:D78))</f>
+        <v/>
+      </c>
+      <c r="E88" s="28" t="str">
+        <f t="shared" ref="E88:L88" si="25">IF(SUMPRODUCT($D$42:$D$44,E76:E78)=0,"",SUMPRODUCT($D$42:$D$44,E76:E78))</f>
+        <v/>
+      </c>
+      <c r="F88" s="28" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="G88" s="28" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="H88" s="28" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="I88" s="28" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="J88" s="28" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="K88" s="28" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="L88" s="105" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
       <c r="M88" s="66"/>
       <c r="N88" s="66"/>
     </row>
     <row r="89" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B89" s="52"/>
-      <c r="C89" s="123" t="s">
-        <v>26</v>
+      <c r="C89" s="104" t="s">
+        <v>27</v>
       </c>
       <c r="D89" s="28" t="str">
-        <f>IF(SUMPRODUCT($D$43:$D$45,D77:D79)=0,"",SUMPRODUCT($D$43:$D$45,D77:D79))</f>
+        <f>IF(SUMPRODUCT($E$42:$E$44,D80:D82)=0,"",SUMPRODUCT($E$42:$E$44,D80:D82))</f>
         <v/>
       </c>
       <c r="E89" s="28" t="str">
-        <f t="shared" ref="E89:L89" si="20">IF(SUMPRODUCT($D$43:$D$45,E77:E79)=0,"",SUMPRODUCT($D$43:$D$45,E77:E79))</f>
+        <f t="shared" ref="E89:L89" si="26">IF(SUMPRODUCT($E$42:$E$44,E80:E82)=0,"",SUMPRODUCT($E$42:$E$44,E80:E82))</f>
         <v/>
       </c>
       <c r="F89" s="28" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G89" s="28" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="H89" s="28" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I89" s="28" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="J89" s="28" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="K89" s="28" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L89" s="124" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="L89" s="105" t="str">
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="M89" s="66"/>
@@ -3910,43 +4054,43 @@
     </row>
     <row r="90" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B90" s="52"/>
-      <c r="C90" s="123" t="s">
-        <v>27</v>
+      <c r="C90" s="104" t="s">
+        <v>28</v>
       </c>
       <c r="D90" s="28" t="str">
-        <f>IF(SUMPRODUCT($E$43:$E$45,D81:D83)=0,"",SUMPRODUCT($E$43:$E$45,D81:D83))</f>
+        <f>IF(SUMPRODUCT($F$42:$F$44,D84:D86)=0,"",SUMPRODUCT($F$42:$F$44,D84:D86))</f>
         <v/>
       </c>
       <c r="E90" s="28" t="str">
-        <f t="shared" ref="E90:L90" si="21">IF(SUMPRODUCT($E$43:$E$45,E81:E83)=0,"",SUMPRODUCT($E$43:$E$45,E81:E83))</f>
+        <f t="shared" ref="E90:L90" si="27">IF(SUMPRODUCT($F$42:$F$44,E84:E86)=0,"",SUMPRODUCT($F$42:$F$44,E84:E86))</f>
         <v/>
       </c>
       <c r="F90" s="28" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="G90" s="28" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H90" s="28" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="I90" s="28" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="J90" s="28" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="K90" s="28" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L90" s="124" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L90" s="105" t="str">
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="M90" s="66"/>
@@ -3954,51 +4098,22 @@
     </row>
     <row r="91" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B91" s="52"/>
-      <c r="C91" s="123" t="s">
-        <v>28</v>
-      </c>
-      <c r="D91" s="28" t="str">
-        <f>IF(SUMPRODUCT($F$43:$F$45,D85:D87)=0,"",SUMPRODUCT($F$43:$F$45,D85:D87))</f>
-        <v/>
-      </c>
-      <c r="E91" s="28" t="str">
-        <f t="shared" ref="E91:L91" si="22">IF(SUMPRODUCT($F$43:$F$45,E85:E87)=0,"",SUMPRODUCT($F$43:$F$45,E85:E87))</f>
-        <v/>
-      </c>
-      <c r="F91" s="28" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G91" s="28" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="H91" s="28" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="I91" s="28" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="J91" s="28" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="K91" s="28" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L91" s="124" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
+      <c r="C91" s="107"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="70"/>
+      <c r="J91" s="70"/>
+      <c r="K91" s="70"/>
+      <c r="L91" s="108"/>
       <c r="M91" s="66"/>
       <c r="N91" s="66"/>
     </row>
     <row r="92" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B92" s="52"/>
-      <c r="C92" s="127"/>
+      <c r="C92" s="107"/>
       <c r="D92" s="70"/>
       <c r="E92" s="29"/>
       <c r="F92" s="70"/>
@@ -4007,13 +4122,17 @@
       <c r="I92" s="70"/>
       <c r="J92" s="70"/>
       <c r="K92" s="70"/>
-      <c r="L92" s="128"/>
+      <c r="L92" s="108"/>
       <c r="M92" s="66"/>
       <c r="N92" s="66"/>
     </row>
     <row r="93" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B93" s="52"/>
-      <c r="C93" s="127"/>
+      <c r="B93" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="97" t="s">
+        <v>56</v>
+      </c>
       <c r="D93" s="70"/>
       <c r="E93" s="29"/>
       <c r="F93" s="70"/>
@@ -4022,116 +4141,141 @@
       <c r="I93" s="70"/>
       <c r="J93" s="70"/>
       <c r="K93" s="70"/>
-      <c r="L93" s="128"/>
+      <c r="L93" s="108"/>
       <c r="M93" s="66"/>
       <c r="N93" s="66"/>
     </row>
     <row r="94" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B94" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94" s="116" t="s">
-        <v>57</v>
-      </c>
-      <c r="D94" s="70"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="70"/>
-      <c r="G94" s="70"/>
-      <c r="H94" s="70"/>
-      <c r="I94" s="70"/>
-      <c r="J94" s="70"/>
-      <c r="K94" s="70"/>
-      <c r="L94" s="128"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="107"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="66"/>
+      <c r="I94" s="66"/>
+      <c r="J94" s="66"/>
+      <c r="K94" s="66"/>
+      <c r="L94" s="110"/>
       <c r="M94" s="66"/>
       <c r="N94" s="66"/>
     </row>
     <row r="95" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B95" s="52"/>
-      <c r="C95" s="127"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
-      <c r="J95" s="66"/>
-      <c r="K95" s="66"/>
-      <c r="L95" s="130"/>
+      <c r="C95" s="111"/>
+      <c r="D95" s="53">
+        <v>1990</v>
+      </c>
+      <c r="E95" s="53">
+        <v>2000</v>
+      </c>
+      <c r="F95" s="53">
+        <v>2010</v>
+      </c>
+      <c r="G95" s="53">
+        <v>2015</v>
+      </c>
+      <c r="H95" s="53">
+        <v>2016</v>
+      </c>
+      <c r="I95" s="53">
+        <v>2017</v>
+      </c>
+      <c r="J95" s="53">
+        <v>2018</v>
+      </c>
+      <c r="K95" s="53">
+        <v>2019</v>
+      </c>
+      <c r="L95" s="103">
+        <v>2020</v>
+      </c>
       <c r="M95" s="66"/>
       <c r="N95" s="66"/>
     </row>
     <row r="96" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B96" s="52"/>
-      <c r="C96" s="131"/>
-      <c r="D96" s="53">
-        <v>1990</v>
-      </c>
-      <c r="E96" s="53">
-        <v>2000</v>
-      </c>
-      <c r="F96" s="53">
-        <v>2010</v>
-      </c>
-      <c r="G96" s="53">
-        <v>2015</v>
-      </c>
-      <c r="H96" s="53">
-        <v>2016</v>
-      </c>
-      <c r="I96" s="53">
-        <v>2017</v>
-      </c>
-      <c r="J96" s="53">
-        <v>2018</v>
-      </c>
-      <c r="K96" s="53">
-        <v>2019</v>
-      </c>
-      <c r="L96" s="122">
-        <v>2020</v>
+      <c r="C96" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="72" t="str">
+        <f>IF(ISBLANK(D27),"",IF(D27=0,0,D27*D68))</f>
+        <v/>
+      </c>
+      <c r="E96" s="72" t="str">
+        <f t="shared" ref="E96:L96" si="28">IF(ISBLANK(E27),"",IF(E27=0,0,E27*E68))</f>
+        <v/>
+      </c>
+      <c r="F96" s="72" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="G96" s="72" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="H96" s="72" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I96" s="72" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="J96" s="72" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K96" s="72" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="L96" s="105" t="str">
+        <f t="shared" si="28"/>
+        <v/>
       </c>
       <c r="M96" s="66"/>
       <c r="N96" s="66"/>
     </row>
     <row r="97" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B97" s="52"/>
-      <c r="C97" s="118" t="s">
-        <v>26</v>
+      <c r="C97" s="99" t="s">
+        <v>27</v>
       </c>
       <c r="D97" s="72" t="str">
-        <f>IFERROR(D28*D69,"")</f>
+        <f>IF(ISBLANK(D29),"",IF(D29=0,0,D29*D69))</f>
         <v/>
       </c>
       <c r="E97" s="72" t="str">
-        <f t="shared" ref="E97:L97" si="23">IFERROR(E28*E69,"")</f>
+        <f t="shared" ref="E97:L98" si="29">IF(ISBLANK(E29),"",IF(E29=0,0,E29*E69))</f>
         <v/>
       </c>
       <c r="F97" s="72" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G97" s="72" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H97" s="72" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I97" s="72" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="J97" s="72" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="K97" s="72" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="L97" s="132" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L97" s="105" t="str">
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="M97" s="66"/>
@@ -4139,43 +4283,43 @@
     </row>
     <row r="98" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B98" s="52"/>
-      <c r="C98" s="118" t="s">
-        <v>27</v>
+      <c r="C98" s="99" t="s">
+        <v>28</v>
       </c>
       <c r="D98" s="72" t="str">
-        <f>IFERROR(D30*D70,"")</f>
+        <f>IF(ISBLANK(D30),"",IF(D30=0,0,D30*D70))</f>
         <v/>
       </c>
       <c r="E98" s="72" t="str">
-        <f t="shared" ref="E98:L98" si="24">IFERROR(E30*E70,"")</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F98" s="72" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G98" s="72" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H98" s="72" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I98" s="72" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="J98" s="72" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="K98" s="72" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="L98" s="132" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L98" s="105" t="str">
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="M98" s="66"/>
@@ -4183,43 +4327,43 @@
     </row>
     <row r="99" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B99" s="52"/>
-      <c r="C99" s="118" t="s">
-        <v>28</v>
-      </c>
-      <c r="D99" s="72" t="str">
-        <f>IFERROR(D31*D71,"")</f>
-        <v/>
-      </c>
-      <c r="E99" s="72" t="str">
-        <f t="shared" ref="E99:L99" si="25">IFERROR(E31*E71,"")</f>
-        <v/>
-      </c>
-      <c r="F99" s="72" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="G99" s="72" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="H99" s="72" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="I99" s="72" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="J99" s="72" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="K99" s="72" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="L99" s="132" t="str">
-        <f t="shared" si="25"/>
+      <c r="C99" s="111" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" s="73" t="str">
+        <f>IFERROR(SUMPRODUCT(D96:D98,N16:N18)/D20,"")</f>
+        <v/>
+      </c>
+      <c r="E99" s="73" t="str">
+        <f t="shared" ref="E99:L99" si="30">IFERROR(SUMPRODUCT(E96:E98,O16:O18)/E20,"")</f>
+        <v/>
+      </c>
+      <c r="F99" s="73" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G99" s="73" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="H99" s="73" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="I99" s="73" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="J99" s="73" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="K99" s="73" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="L99" s="105" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M99" s="66"/>
@@ -4227,51 +4371,22 @@
     </row>
     <row r="100" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B100" s="52"/>
-      <c r="C100" s="131" t="s">
-        <v>40</v>
-      </c>
-      <c r="D100" s="73" t="str">
-        <f t="shared" ref="D100" si="26">IFERROR(((D97*D16+D98*D18+D99*D20)/D21),"")</f>
-        <v/>
-      </c>
-      <c r="E100" s="73" t="str">
-        <f t="shared" ref="E100" si="27">IFERROR(((E97*E16+E98*E18+E99*E20)/E21),"")</f>
-        <v/>
-      </c>
-      <c r="F100" s="73" t="str">
-        <f t="shared" ref="F100:K100" si="28">IFERROR(((F97*F16+F98*F18+F99*F20)/F21),"")</f>
-        <v/>
-      </c>
-      <c r="G100" s="73" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="H100" s="73" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="I100" s="73" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="J100" s="73" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="K100" s="73" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="L100" s="133" t="str">
-        <f>IFERROR(((L97*L16+L98*L18+L99*L20)/L21),"")</f>
-        <v/>
-      </c>
+      <c r="C100" s="100"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="70"/>
+      <c r="G100" s="70"/>
+      <c r="H100" s="70"/>
+      <c r="I100" s="70"/>
+      <c r="J100" s="70"/>
+      <c r="K100" s="70"/>
+      <c r="L100" s="108"/>
       <c r="M100" s="66"/>
       <c r="N100" s="66"/>
     </row>
     <row r="101" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B101" s="52"/>
-      <c r="C101" s="119"/>
+      <c r="C101" s="100"/>
       <c r="D101" s="70"/>
       <c r="E101" s="29"/>
       <c r="F101" s="70"/>
@@ -4280,13 +4395,17 @@
       <c r="I101" s="70"/>
       <c r="J101" s="70"/>
       <c r="K101" s="70"/>
-      <c r="L101" s="128"/>
+      <c r="L101" s="108"/>
       <c r="M101" s="66"/>
       <c r="N101" s="66"/>
     </row>
     <row r="102" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B102" s="52"/>
-      <c r="C102" s="119"/>
+      <c r="B102" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" s="97" t="s">
+        <v>59</v>
+      </c>
       <c r="D102" s="70"/>
       <c r="E102" s="29"/>
       <c r="F102" s="70"/>
@@ -4295,17 +4414,13 @@
       <c r="I102" s="70"/>
       <c r="J102" s="70"/>
       <c r="K102" s="70"/>
-      <c r="L102" s="128"/>
+      <c r="L102" s="108"/>
       <c r="M102" s="66"/>
       <c r="N102" s="66"/>
     </row>
     <row r="103" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B103" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="C103" s="116" t="s">
-        <v>61</v>
-      </c>
+      <c r="B103" s="91"/>
+      <c r="C103" s="97"/>
       <c r="D103" s="70"/>
       <c r="E103" s="29"/>
       <c r="F103" s="70"/>
@@ -4314,248 +4429,248 @@
       <c r="I103" s="70"/>
       <c r="J103" s="70"/>
       <c r="K103" s="70"/>
-      <c r="L103" s="128"/>
+      <c r="L103" s="108"/>
       <c r="M103" s="66"/>
       <c r="N103" s="66"/>
     </row>
     <row r="104" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B104" s="110"/>
-      <c r="C104" s="116"/>
-      <c r="D104" s="70"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="70"/>
-      <c r="H104" s="70"/>
-      <c r="I104" s="70"/>
-      <c r="J104" s="70"/>
-      <c r="K104" s="70"/>
-      <c r="L104" s="128"/>
+      <c r="B104" s="91"/>
+      <c r="C104" s="111"/>
+      <c r="D104" s="53">
+        <v>1990</v>
+      </c>
+      <c r="E104" s="53">
+        <v>2000</v>
+      </c>
+      <c r="F104" s="53">
+        <v>2010</v>
+      </c>
+      <c r="G104" s="53">
+        <v>2015</v>
+      </c>
+      <c r="H104" s="53">
+        <v>2016</v>
+      </c>
+      <c r="I104" s="53">
+        <v>2017</v>
+      </c>
+      <c r="J104" s="53">
+        <v>2018</v>
+      </c>
+      <c r="K104" s="53">
+        <v>2019</v>
+      </c>
+      <c r="L104" s="103">
+        <v>2020</v>
+      </c>
       <c r="M104" s="66"/>
       <c r="N104" s="66"/>
     </row>
     <row r="105" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B105" s="110"/>
-      <c r="C105" s="131"/>
-      <c r="D105" s="53">
-        <v>1990</v>
-      </c>
-      <c r="E105" s="53">
-        <v>2000</v>
-      </c>
-      <c r="F105" s="53">
-        <v>2010</v>
-      </c>
-      <c r="G105" s="53">
-        <v>2015</v>
-      </c>
-      <c r="H105" s="53">
-        <v>2016</v>
-      </c>
-      <c r="I105" s="53">
-        <v>2017</v>
-      </c>
-      <c r="J105" s="53">
-        <v>2018</v>
-      </c>
-      <c r="K105" s="53">
-        <v>2019</v>
-      </c>
-      <c r="L105" s="122">
-        <v>2020</v>
+      <c r="B105" s="91"/>
+      <c r="C105" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" s="72" t="str">
+        <f>IF(ISBLANK(D27),"",IF(D27=0,0,D96*D88))</f>
+        <v/>
+      </c>
+      <c r="E105" s="72" t="str">
+        <f t="shared" ref="E105:L105" si="31">IF(ISBLANK(E27),"",IF(E27=0,0,E96*E88))</f>
+        <v/>
+      </c>
+      <c r="F105" s="72" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="G105" s="72" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H105" s="72" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="I105" s="72" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="J105" s="72" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="K105" s="72" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="L105" s="112" t="str">
+        <f t="shared" si="31"/>
+        <v/>
       </c>
       <c r="M105" s="66"/>
       <c r="N105" s="66"/>
     </row>
     <row r="106" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B106" s="110"/>
-      <c r="C106" s="118" t="s">
-        <v>26</v>
+      <c r="B106" s="91"/>
+      <c r="C106" s="99" t="s">
+        <v>27</v>
       </c>
       <c r="D106" s="72" t="str">
-        <f t="shared" ref="D106:L106" si="29">IFERROR(D97*D89,"")</f>
+        <f>IF(ISBLANK(D29),"",IF(D29=0,0,D97*D89))</f>
         <v/>
       </c>
       <c r="E106" s="72" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="E106:L107" si="32">IF(ISBLANK(E29),"",IF(E29=0,0,E97*E89))</f>
         <v/>
       </c>
       <c r="F106" s="72" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G106" s="72" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H106" s="72" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I106" s="72" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J106" s="72" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K106" s="72" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="L106" s="132" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L106" s="112" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M106" s="66"/>
       <c r="N106" s="66"/>
     </row>
     <row r="107" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B107" s="110"/>
-      <c r="C107" s="118" t="s">
-        <v>27</v>
+      <c r="B107" s="52"/>
+      <c r="C107" s="99" t="s">
+        <v>28</v>
       </c>
       <c r="D107" s="72" t="str">
-        <f t="shared" ref="D107:L107" si="30">IFERROR(D98*D90,"")</f>
+        <f>IF(ISBLANK(D30),"",IF(D30=0,0,D98*D90))</f>
         <v/>
       </c>
       <c r="E107" s="72" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="F107" s="72" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G107" s="72" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H107" s="72" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I107" s="72" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J107" s="72" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K107" s="72" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="L107" s="132" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L107" s="112" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M107" s="66"/>
       <c r="N107" s="66"/>
     </row>
-    <row r="108" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:14" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B108" s="52"/>
-      <c r="C108" s="118" t="s">
-        <v>28</v>
-      </c>
-      <c r="D108" s="72" t="str">
-        <f t="shared" ref="D108:L108" si="31">IFERROR(D99*D91,"")</f>
-        <v/>
-      </c>
-      <c r="E108" s="72" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="F108" s="72" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="G108" s="72" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H108" s="72" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="I108" s="72" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="J108" s="72" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="K108" s="72" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="L108" s="132" t="str">
-        <f t="shared" si="31"/>
+      <c r="C108" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="D108" s="114" t="str">
+        <f>IFERROR(SUMPRODUCT(D105:D107,N16:N18)/D20,"")</f>
+        <v/>
+      </c>
+      <c r="E108" s="114" t="str">
+        <f t="shared" ref="E108:L108" si="33">IFERROR(SUMPRODUCT(E105:E107,O16:O18)/E20,"")</f>
+        <v/>
+      </c>
+      <c r="F108" s="114" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="G108" s="114" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H108" s="114" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I108" s="114" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J108" s="114" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K108" s="114" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L108" s="115" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M108" s="66"/>
       <c r="N108" s="66"/>
     </row>
-    <row r="109" spans="2:14" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B109" s="52"/>
-      <c r="C109" s="134" t="s">
-        <v>40</v>
-      </c>
-      <c r="D109" s="135" t="str">
-        <f t="shared" ref="D109:L109" si="32">IFERROR(((D106*D16+D107*D18+D108*D20)/D21),"")</f>
-        <v/>
-      </c>
-      <c r="E109" s="135" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="F109" s="135" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G109" s="135" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H109" s="135" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I109" s="135" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J109" s="135" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K109" s="135" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L109" s="136" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="C109" s="69"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="70"/>
+      <c r="H109" s="70"/>
+      <c r="I109" s="70"/>
+      <c r="J109" s="70"/>
+      <c r="K109" s="70"/>
+      <c r="L109" s="70"/>
       <c r="M109" s="66"/>
       <c r="N109" s="66"/>
     </row>
-    <row r="110" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B110" s="52"/>
-      <c r="C110" s="69"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="70"/>
-      <c r="G110" s="70"/>
-      <c r="H110" s="70"/>
-      <c r="I110" s="70"/>
-      <c r="J110" s="70"/>
-      <c r="K110" s="70"/>
-      <c r="L110" s="70"/>
-      <c r="M110" s="66"/>
-      <c r="N110" s="66"/>
+    <row r="110" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="74"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="60"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="60"/>
+      <c r="J110" s="60"/>
+      <c r="K110" s="60"/>
+      <c r="L110" s="60"/>
+      <c r="M110" s="47"/>
+      <c r="N110" s="47"/>
     </row>
     <row r="111" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="74"/>
@@ -4573,181 +4688,181 @@
       <c r="N111" s="47"/>
     </row>
     <row r="112" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="74"/>
-      <c r="C112" s="56"/>
-      <c r="D112" s="60"/>
-      <c r="E112" s="60"/>
-      <c r="F112" s="60"/>
-      <c r="G112" s="60"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="60"/>
-      <c r="J112" s="60"/>
-      <c r="K112" s="60"/>
-      <c r="L112" s="60"/>
-      <c r="M112" s="47"/>
-      <c r="N112" s="47"/>
-    </row>
-    <row r="113" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="34"/>
-      <c r="C113" s="36"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="37"/>
-      <c r="F113" s="37"/>
-      <c r="G113" s="37"/>
-      <c r="H113" s="37"/>
-      <c r="I113" s="37"/>
-      <c r="J113" s="37"/>
-      <c r="K113" s="37"/>
-      <c r="L113" s="37"/>
-      <c r="M113" s="37"/>
-      <c r="N113" s="65"/>
-    </row>
-    <row r="114" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C114" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="N114" s="52"/>
-    </row>
-    <row r="115" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="34"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="37"/>
+      <c r="K112" s="37"/>
+      <c r="L112" s="37"/>
+      <c r="M112" s="37"/>
+      <c r="N112" s="65"/>
+    </row>
+    <row r="113" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C113" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="N113" s="52"/>
+    </row>
+    <row r="114" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="34"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="37"/>
+      <c r="K114" s="37"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="65"/>
+    </row>
+    <row r="115" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="34"/>
-      <c r="C115" s="36"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="37"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="37"/>
-      <c r="H115" s="37"/>
-      <c r="I115" s="37"/>
-      <c r="J115" s="37"/>
-      <c r="K115" s="37"/>
-      <c r="L115" s="37"/>
+      <c r="C115" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" s="89">
+        <v>1990</v>
+      </c>
+      <c r="E115" s="89">
+        <v>2000</v>
+      </c>
+      <c r="F115" s="89">
+        <v>2010</v>
+      </c>
+      <c r="G115" s="89">
+        <v>2015</v>
+      </c>
+      <c r="H115" s="89">
+        <v>2016</v>
+      </c>
+      <c r="I115" s="89">
+        <v>2017</v>
+      </c>
+      <c r="J115" s="89">
+        <v>2018</v>
+      </c>
+      <c r="K115" s="89">
+        <v>2019</v>
+      </c>
+      <c r="L115" s="89">
+        <v>2020</v>
+      </c>
       <c r="M115" s="37"/>
       <c r="N115" s="65"/>
     </row>
-    <row r="116" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="34"/>
-      <c r="C116" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D116" s="108">
-        <v>1990</v>
-      </c>
-      <c r="E116" s="108">
-        <v>2000</v>
-      </c>
-      <c r="F116" s="108">
-        <v>2010</v>
-      </c>
-      <c r="G116" s="108">
-        <v>2015</v>
-      </c>
-      <c r="H116" s="108">
-        <v>2016</v>
-      </c>
-      <c r="I116" s="108">
-        <v>2017</v>
-      </c>
-      <c r="J116" s="108">
-        <v>2018</v>
-      </c>
-      <c r="K116" s="108">
-        <v>2019</v>
-      </c>
-      <c r="L116" s="108">
-        <v>2020</v>
+      <c r="C116" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="D116" s="116" t="str">
+        <f t="shared" ref="D116:L116" si="34">D99</f>
+        <v/>
+      </c>
+      <c r="E116" s="117" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F116" s="117" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G116" s="117" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H116" s="117" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I116" s="117" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J116" s="117" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K116" s="117" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L116" s="118" t="str">
+        <f t="shared" si="34"/>
+        <v/>
       </c>
       <c r="M116" s="37"/>
       <c r="N116" s="65"/>
     </row>
-    <row r="117" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="34"/>
-      <c r="C117" s="106" t="s">
-        <v>34</v>
-      </c>
-      <c r="D117" s="137" t="str">
-        <f t="shared" ref="D117:L117" si="33">D100</f>
-        <v/>
-      </c>
-      <c r="E117" s="138" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="F117" s="138" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="G117" s="138" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H117" s="138" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I117" s="138" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J117" s="138" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K117" s="138" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L117" s="139" t="str">
-        <f t="shared" si="33"/>
+      <c r="C117" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="D117" s="119" t="str">
+        <f>D108</f>
+        <v/>
+      </c>
+      <c r="E117" s="120" t="str">
+        <f t="shared" ref="E117:L117" si="35">E108</f>
+        <v/>
+      </c>
+      <c r="F117" s="120" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G117" s="120" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H117" s="120" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I117" s="120" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J117" s="120" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K117" s="120" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L117" s="121" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="M117" s="37"/>
       <c r="N117" s="65"/>
     </row>
-    <row r="118" spans="2:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="34"/>
-      <c r="C118" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="D118" s="140" t="str">
-        <f>D109</f>
-        <v/>
-      </c>
-      <c r="E118" s="141" t="str">
-        <f t="shared" ref="E118:L118" si="34">E109</f>
-        <v/>
-      </c>
-      <c r="F118" s="141" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G118" s="141" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H118" s="141" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I118" s="141" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J118" s="141" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K118" s="141" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L118" s="142" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M118" s="37"/>
-      <c r="N118" s="65"/>
+    <row r="118" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="75"/>
+      <c r="C118" s="76"/>
+      <c r="D118" s="76"/>
+      <c r="E118" s="76"/>
+      <c r="F118" s="76"/>
+      <c r="G118" s="76"/>
+      <c r="H118" s="76"/>
+      <c r="I118" s="76"/>
+      <c r="J118" s="76"/>
+      <c r="K118" s="76"/>
+      <c r="L118" s="76"/>
+      <c r="M118" s="76"/>
+      <c r="N118" s="66"/>
     </row>
     <row r="119" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="75"/>
@@ -4766,31 +4881,31 @@
     </row>
     <row r="120" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="75"/>
-      <c r="C120" s="76"/>
-      <c r="D120" s="76"/>
-      <c r="E120" s="76"/>
-      <c r="F120" s="76"/>
-      <c r="G120" s="76"/>
-      <c r="H120" s="76"/>
-      <c r="I120" s="76"/>
-      <c r="J120" s="76"/>
-      <c r="K120" s="76"/>
-      <c r="L120" s="76"/>
       <c r="M120" s="76"/>
       <c r="N120" s="66"/>
     </row>
     <row r="121" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="75"/>
+      <c r="B121" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C121" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D121" s="76"/>
+      <c r="E121" s="76"/>
+      <c r="F121" s="76"/>
+      <c r="G121" s="76"/>
+      <c r="H121" s="76"/>
+      <c r="I121" s="76"/>
+      <c r="J121" s="76"/>
+      <c r="K121" s="76"/>
+      <c r="L121" s="76"/>
       <c r="M121" s="76"/>
       <c r="N121" s="66"/>
     </row>
     <row r="122" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C122" s="49" t="s">
-        <v>63</v>
-      </c>
+      <c r="B122" s="75"/>
+      <c r="C122" s="76"/>
       <c r="D122" s="76"/>
       <c r="E122" s="76"/>
       <c r="F122" s="76"/>
@@ -4803,141 +4918,141 @@
       <c r="M122" s="76"/>
       <c r="N122" s="66"/>
     </row>
-    <row r="123" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B123" s="75"/>
-      <c r="C123" s="76"/>
-      <c r="D123" s="76"/>
-      <c r="E123" s="76"/>
-      <c r="F123" s="76"/>
-      <c r="G123" s="76"/>
-      <c r="H123" s="76"/>
-      <c r="I123" s="76"/>
-      <c r="J123" s="76"/>
-      <c r="K123" s="76"/>
-      <c r="L123" s="76"/>
+      <c r="C123" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D123" s="89">
+        <v>1990</v>
+      </c>
+      <c r="E123" s="89">
+        <v>2000</v>
+      </c>
+      <c r="F123" s="89">
+        <v>2010</v>
+      </c>
+      <c r="G123" s="89">
+        <v>2015</v>
+      </c>
+      <c r="H123" s="89">
+        <v>2016</v>
+      </c>
+      <c r="I123" s="89">
+        <v>2017</v>
+      </c>
+      <c r="J123" s="89">
+        <v>2018</v>
+      </c>
+      <c r="K123" s="89">
+        <v>2019</v>
+      </c>
+      <c r="L123" s="89">
+        <v>2020</v>
+      </c>
       <c r="M123" s="76"/>
       <c r="N123" s="66"/>
     </row>
-    <row r="124" spans="2:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="75"/>
-      <c r="C124" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="D124" s="108">
-        <v>1990</v>
-      </c>
-      <c r="E124" s="108">
-        <v>2000</v>
-      </c>
-      <c r="F124" s="108">
-        <v>2010</v>
-      </c>
-      <c r="G124" s="108">
-        <v>2015</v>
-      </c>
-      <c r="H124" s="108">
-        <v>2016</v>
-      </c>
-      <c r="I124" s="108">
-        <v>2017</v>
-      </c>
-      <c r="J124" s="108">
-        <v>2018</v>
-      </c>
-      <c r="K124" s="108">
-        <v>2019</v>
-      </c>
-      <c r="L124" s="108">
-        <v>2020</v>
+      <c r="C124" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" s="116" t="str">
+        <f>IFERROR(D116*$D$50,"")</f>
+        <v/>
+      </c>
+      <c r="E124" s="117" t="str">
+        <f t="shared" ref="E124:L124" si="36">IFERROR(E116*$D$50,"")</f>
+        <v/>
+      </c>
+      <c r="F124" s="117" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G124" s="117" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H124" s="117" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I124" s="117" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J124" s="117" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K124" s="117" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L124" s="118" t="str">
+        <f t="shared" si="36"/>
+        <v/>
       </c>
       <c r="M124" s="76"/>
       <c r="N124" s="66"/>
     </row>
-    <row r="125" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B125" s="75"/>
-      <c r="C125" s="106" t="s">
-        <v>34</v>
-      </c>
-      <c r="D125" s="137" t="str">
-        <f>IFERROR(D117*$D$51,"")</f>
-        <v/>
-      </c>
-      <c r="E125" s="138" t="str">
-        <f t="shared" ref="E125:L125" si="35">IFERROR(E117*$D$51,"")</f>
-        <v/>
-      </c>
-      <c r="F125" s="138" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="G125" s="138" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="H125" s="138" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="I125" s="138" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="J125" s="138" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="K125" s="138" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="L125" s="139" t="str">
-        <f t="shared" si="35"/>
+      <c r="C125" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="D125" s="119" t="str">
+        <f>IFERROR(D117*$D$50,"")</f>
+        <v/>
+      </c>
+      <c r="E125" s="120" t="str">
+        <f t="shared" ref="E125:L125" si="37">IFERROR(E117*$D$50,"")</f>
+        <v/>
+      </c>
+      <c r="F125" s="120" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="G125" s="120" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="H125" s="120" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="I125" s="120" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J125" s="120" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="K125" s="120" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="L125" s="121" t="str">
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M125" s="76"/>
       <c r="N125" s="66"/>
     </row>
-    <row r="126" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="75"/>
-      <c r="C126" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="D126" s="140" t="str">
-        <f>IFERROR(D118*$D$51,"")</f>
-        <v/>
-      </c>
-      <c r="E126" s="141" t="str">
-        <f t="shared" ref="E126:L126" si="36">IFERROR(E118*$D$51,"")</f>
-        <v/>
-      </c>
-      <c r="F126" s="141" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="G126" s="141" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="H126" s="141" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="I126" s="141" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="J126" s="141" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="K126" s="141" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="L126" s="142" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
+      <c r="C126" s="76"/>
+      <c r="D126" s="76"/>
+      <c r="E126" s="76"/>
+      <c r="F126" s="76"/>
+      <c r="G126" s="76"/>
+      <c r="H126" s="76"/>
+      <c r="I126" s="76"/>
+      <c r="J126" s="76"/>
+      <c r="K126" s="76"/>
+      <c r="L126" s="76"/>
       <c r="M126" s="76"/>
       <c r="N126" s="66"/>
     </row>
@@ -4956,7 +5071,7 @@
       <c r="M127" s="76"/>
       <c r="N127" s="66"/>
     </row>
-    <row r="128" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:14" ht="15" x14ac:dyDescent="0.2">
       <c r="B128" s="75"/>
       <c r="C128" s="76"/>
       <c r="D128" s="76"/>
@@ -5344,7 +5459,6 @@
       <c r="K153" s="76"/>
       <c r="L153" s="76"/>
       <c r="M153" s="76"/>
-      <c r="N153" s="66"/>
     </row>
     <row r="154" spans="2:14" ht="15" x14ac:dyDescent="0.2">
       <c r="B154" s="75"/>
@@ -5458,43 +5572,29 @@
       <c r="L161" s="76"/>
       <c r="M161" s="76"/>
     </row>
-    <row r="162" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B162" s="75"/>
-      <c r="C162" s="76"/>
-      <c r="D162" s="76"/>
-      <c r="E162" s="76"/>
-      <c r="F162" s="76"/>
-      <c r="G162" s="76"/>
-      <c r="H162" s="76"/>
-      <c r="I162" s="76"/>
-      <c r="J162" s="76"/>
-      <c r="K162" s="76"/>
-      <c r="L162" s="76"/>
-      <c r="M162" s="76"/>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hqka/hIidDWUTktEOty0TY+CKwa7J8AfMFdJqQdOVkgLDPeoH9f2p8YGP3cb63lHDhhMT6I1H4c/nXkFYJKAEg==" saltValue="wHHoiguKEWKYV68rAPwyUA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BS2KuF1Jj8Flcl1HFco/FjaVcNQ36u7KDj1yTDB0NFb1yhSsHDwM1JDd21Hd36Nl1LNSw/yJl/dPc86/hxFjHw==" saltValue="btcgvkPt50oRV2bUrHhcfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
     <mergeCell ref="C5:L5"/>
-    <mergeCell ref="D60:L60"/>
+    <mergeCell ref="D59:L59"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D64:L64"/>
-    <mergeCell ref="D80:L80"/>
-    <mergeCell ref="D84:L84"/>
-    <mergeCell ref="D68:L68"/>
-    <mergeCell ref="D88:L88"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D63:L63"/>
+    <mergeCell ref="D79:L79"/>
+    <mergeCell ref="D83:L83"/>
+    <mergeCell ref="D67:L67"/>
+    <mergeCell ref="D87:L87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/server/biomassStock/calculator_subtropical_en.xlsx
+++ b/server/biomassStock/calculator_subtropical_en.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="21570" windowHeight="7560"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="21570" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Biomass" sheetId="9" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="82">
   <si>
     <t>1000 ha</t>
   </si>
@@ -304,9 +304,6 @@
     <t xml:space="preserve"> % of Growing stock</t>
   </si>
   <si>
-    <t>In Sections 1 and 2 you insert data from reporting tables 1b and 2a, and in Section 3  you insert the estimated  percentages of growing stock by combination of FRA forest type and IPCC forest type. Once you are done, copy sections 3 to 6 and paste them in the comment section below table 2c in the FRA platform. Finally, copy the data from Section 7 to table 2c in the platform and data from Section 8 to table 2d in the platform</t>
-  </si>
-  <si>
     <t>Input data on Forest area from  reporting table 1b</t>
   </si>
   <si>
@@ -320,6 +317,15 @@
   </si>
   <si>
     <t>Copy highlighted carbon values into FRA platform table 2d</t>
+  </si>
+  <si>
+    <t>In Sections 1 and 2 you insert data from reporting tables 1b and 2a, and in Section 3  you insert the estimated  percentages of growing stock by combination of FRA forest type and IPCC forest type. Once you are done, copy sections 3 to 8 and paste them in the comment section below table 2c in the FRA platform. Finally, copy the data from Section 9 to table 2c in the platform and data from Section 10 to table 2d in the platform.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10.</t>
   </si>
 </sst>
 </file>
@@ -1317,6 +1323,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1325,9 +1334,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1670,7 +1676,7 @@
   <dimension ref="B1:V161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1715,7 +1721,7 @@
         <v>66</v>
       </c>
       <c r="F3" s="41">
-        <v>43025</v>
+        <v>43084</v>
       </c>
       <c r="G3" s="82"/>
       <c r="H3" s="83"/>
@@ -1743,18 +1749,18 @@
       <c r="B5" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="128" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
+      <c r="C5" s="125" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
       <c r="M5" s="37"/>
     </row>
     <row r="6" spans="2:22" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1865,7 +1871,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
@@ -2207,7 +2213,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="50"/>
@@ -2447,7 +2453,7 @@
       <c r="B35" s="34"/>
       <c r="C35" s="36"/>
       <c r="D35" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
@@ -2976,15 +2982,15 @@
       <c r="C59" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="125"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="126"/>
-      <c r="K59" s="126"/>
-      <c r="L59" s="127"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="127"/>
+      <c r="G59" s="127"/>
+      <c r="H59" s="127"/>
+      <c r="I59" s="127"/>
+      <c r="J59" s="127"/>
+      <c r="K59" s="127"/>
+      <c r="L59" s="128"/>
       <c r="M59" s="66"/>
       <c r="N59" s="66"/>
     </row>
@@ -3125,15 +3131,15 @@
       <c r="C63" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="125"/>
-      <c r="E63" s="126"/>
-      <c r="F63" s="126"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="126"/>
-      <c r="I63" s="126"/>
-      <c r="J63" s="126"/>
-      <c r="K63" s="126"/>
-      <c r="L63" s="127"/>
+      <c r="D63" s="126"/>
+      <c r="E63" s="127"/>
+      <c r="F63" s="127"/>
+      <c r="G63" s="127"/>
+      <c r="H63" s="127"/>
+      <c r="I63" s="127"/>
+      <c r="J63" s="127"/>
+      <c r="K63" s="127"/>
+      <c r="L63" s="128"/>
       <c r="M63" s="66"/>
       <c r="N63" s="66"/>
     </row>
@@ -3274,15 +3280,15 @@
       <c r="C67" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="125"/>
-      <c r="E67" s="126"/>
-      <c r="F67" s="126"/>
-      <c r="G67" s="126"/>
-      <c r="H67" s="126"/>
-      <c r="I67" s="126"/>
-      <c r="J67" s="126"/>
-      <c r="K67" s="126"/>
-      <c r="L67" s="127"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="127"/>
+      <c r="F67" s="127"/>
+      <c r="G67" s="127"/>
+      <c r="H67" s="127"/>
+      <c r="I67" s="127"/>
+      <c r="J67" s="127"/>
+      <c r="K67" s="127"/>
+      <c r="L67" s="128"/>
       <c r="M67" s="66"/>
       <c r="N67" s="66"/>
     </row>
@@ -3450,7 +3456,7 @@
     </row>
     <row r="73" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="91" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C73" s="97" t="s">
         <v>50</v>
@@ -3654,15 +3660,15 @@
       <c r="C79" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="125"/>
-      <c r="E79" s="126"/>
-      <c r="F79" s="126"/>
-      <c r="G79" s="126"/>
-      <c r="H79" s="126"/>
-      <c r="I79" s="126"/>
-      <c r="J79" s="126"/>
-      <c r="K79" s="126"/>
-      <c r="L79" s="127"/>
+      <c r="D79" s="126"/>
+      <c r="E79" s="127"/>
+      <c r="F79" s="127"/>
+      <c r="G79" s="127"/>
+      <c r="H79" s="127"/>
+      <c r="I79" s="127"/>
+      <c r="J79" s="127"/>
+      <c r="K79" s="127"/>
+      <c r="L79" s="128"/>
       <c r="M79" s="66"/>
       <c r="N79" s="66"/>
     </row>
@@ -3803,15 +3809,15 @@
       <c r="C83" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="125"/>
-      <c r="E83" s="126"/>
-      <c r="F83" s="126"/>
-      <c r="G83" s="126"/>
-      <c r="H83" s="126"/>
-      <c r="I83" s="126"/>
-      <c r="J83" s="126"/>
-      <c r="K83" s="126"/>
-      <c r="L83" s="127"/>
+      <c r="D83" s="126"/>
+      <c r="E83" s="127"/>
+      <c r="F83" s="127"/>
+      <c r="G83" s="127"/>
+      <c r="H83" s="127"/>
+      <c r="I83" s="127"/>
+      <c r="J83" s="127"/>
+      <c r="K83" s="127"/>
+      <c r="L83" s="128"/>
       <c r="M83" s="66"/>
       <c r="N83" s="66"/>
     </row>
@@ -3952,15 +3958,15 @@
       <c r="C87" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D87" s="125"/>
-      <c r="E87" s="126"/>
-      <c r="F87" s="126"/>
-      <c r="G87" s="126"/>
-      <c r="H87" s="126"/>
-      <c r="I87" s="126"/>
-      <c r="J87" s="126"/>
-      <c r="K87" s="126"/>
-      <c r="L87" s="127"/>
+      <c r="D87" s="126"/>
+      <c r="E87" s="127"/>
+      <c r="F87" s="127"/>
+      <c r="G87" s="127"/>
+      <c r="H87" s="127"/>
+      <c r="I87" s="127"/>
+      <c r="J87" s="127"/>
+      <c r="K87" s="127"/>
+      <c r="L87" s="128"/>
       <c r="M87" s="66"/>
       <c r="N87" s="66"/>
     </row>
@@ -4128,7 +4134,7 @@
     </row>
     <row r="93" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B93" s="91" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C93" s="97" t="s">
         <v>56</v>
@@ -4401,7 +4407,7 @@
     </row>
     <row r="102" spans="2:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B102" s="91" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C102" s="97" t="s">
         <v>59</v>
@@ -4704,10 +4710,10 @@
     </row>
     <row r="113" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="58" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C113" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N113" s="52"/>
     </row>
@@ -4886,10 +4892,10 @@
     </row>
     <row r="121" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="58" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C121" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D121" s="76"/>
       <c r="E121" s="76"/>
@@ -5573,8 +5579,13 @@
       <c r="M161" s="76"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BS2KuF1Jj8Flcl1HFco/FjaVcNQ36u7KDj1yTDB0NFb1yhSsHDwM1JDd21Hd36Nl1LNSw/yJl/dPc86/hxFjHw==" saltValue="btcgvkPt50oRV2bUrHhcfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yR2LwUiABC1DkzFGo0k2GVQSwF9KPf3WZz8ArRuwGj2KwffXPgbMIfHsGufHF9TAxGKHKnDEWZEhd3aQlF93FQ==" saltValue="WDl2ILrQqQwPlfPnOB15lg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
+    <mergeCell ref="D63:L63"/>
+    <mergeCell ref="D79:L79"/>
+    <mergeCell ref="D83:L83"/>
+    <mergeCell ref="D67:L67"/>
+    <mergeCell ref="D87:L87"/>
     <mergeCell ref="C5:L5"/>
     <mergeCell ref="D59:L59"/>
     <mergeCell ref="F6:G6"/>
@@ -5590,11 +5601,6 @@
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D63:L63"/>
-    <mergeCell ref="D79:L79"/>
-    <mergeCell ref="D83:L83"/>
-    <mergeCell ref="D67:L67"/>
-    <mergeCell ref="D87:L87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/server/biomassStock/calculator_subtropical_en.xlsx
+++ b/server/biomassStock/calculator_subtropical_en.xlsx
@@ -310,9 +310,6 @@
     <t>Input data on Growing stock from  reporting table 2a</t>
   </si>
   <si>
-    <t>When finished, copy this area into the comment section below table 2c in the FRA platform</t>
-  </si>
-  <si>
     <t>Copy highlighted biomass values into FRA platform table 2c</t>
   </si>
   <si>
@@ -326,6 +323,9 @@
   </si>
   <si>
     <t>10.</t>
+  </si>
+  <si>
+    <t>When finished, copy this area into section Analysis and processing of national data in table 2c in the FRA platform</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1676,7 @@
   <dimension ref="B1:V161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:L5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1750,7 +1750,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="125" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="125"/>
       <c r="E5" s="125"/>
@@ -2453,7 +2453,7 @@
       <c r="B35" s="34"/>
       <c r="C35" s="36"/>
       <c r="D35" s="49" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
@@ -4710,10 +4710,10 @@
     </row>
     <row r="113" spans="2:14" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C113" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N113" s="52"/>
     </row>
@@ -4892,10 +4892,10 @@
     </row>
     <row r="121" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C121" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D121" s="76"/>
       <c r="E121" s="76"/>
@@ -5579,7 +5579,7 @@
       <c r="M161" s="76"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yR2LwUiABC1DkzFGo0k2GVQSwF9KPf3WZz8ArRuwGj2KwffXPgbMIfHsGufHF9TAxGKHKnDEWZEhd3aQlF93FQ==" saltValue="WDl2ILrQqQwPlfPnOB15lg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kF00t606hg98OSz2DAJorIqvD1g6U4ORZ9BBFGpLMSEKknpGcrjmiftO9FHdeMa4y3qgpWG3kxrk3/mLdGJSSQ==" saltValue="P4mX3wQfCO9AOaU0Hk0lgA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
     <mergeCell ref="D63:L63"/>
     <mergeCell ref="D79:L79"/>
